--- a/100runs/run094/NotionalETEOutput094.xlsx
+++ b/100runs/run094/NotionalETEOutput094.xlsx
@@ -49,22 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_HELLMASKER_State_Update</t>
+  </si>
+  <si>
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>MISSILE_HELLMASKER_86.MISSILE_HELLMASKER_86</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_4.MISSILE_SOMERSAULT_4</t>
+    <t>MISSILE_SOMERSAULT_100.MISSILE_SOMERSAULT_100</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_448.MISSILE_HIGHWIND_448</t>
+    <t>MISSILE_HELLMASKER</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND</t>
   </si>
 </sst>
 </file>
@@ -480,22 +480,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>131.7333006248789</v>
+        <v>1116577.738355811</v>
       </c>
       <c r="G2">
-        <v>-121.7998757072627</v>
+        <v>4841108.644826905</v>
       </c>
       <c r="H2">
-        <v>496.1950489804715</v>
+        <v>3985224.505917884</v>
       </c>
       <c r="I2">
-        <v>-1203.874206408459</v>
+        <v>1114861.853144229</v>
       </c>
       <c r="J2">
-        <v>2337.515997363823</v>
+        <v>4843215.635913583</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984375.474005376</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,22 +515,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>131.7333006248789</v>
+        <v>1116577.738355811</v>
       </c>
       <c r="G3">
-        <v>-121.7998757072627</v>
+        <v>4841108.644826905</v>
       </c>
       <c r="H3">
-        <v>496.1950489804715</v>
+        <v>3985224.505917884</v>
       </c>
       <c r="I3">
-        <v>-1180.106523973182</v>
+        <v>1114891.467153861</v>
       </c>
       <c r="J3">
-        <v>2280.654064465244</v>
+        <v>4843166.984402082</v>
       </c>
       <c r="K3">
-        <v>416.9870569553556</v>
+        <v>3984679.27039024</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,22 +550,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>131.7333006248789</v>
+        <v>1116577.738355811</v>
       </c>
       <c r="G4">
-        <v>-121.7998757072627</v>
+        <v>4841108.644826905</v>
       </c>
       <c r="H4">
-        <v>496.1950489804715</v>
+        <v>3985224.505917884</v>
       </c>
       <c r="I4">
-        <v>-1155.753584223804</v>
+        <v>1114921.810381235</v>
       </c>
       <c r="J4">
-        <v>2223.792131566665</v>
+        <v>4843118.332890579</v>
       </c>
       <c r="K4">
-        <v>813.181227850867</v>
+        <v>3984967.918094803</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,22 +585,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>131.7333006248789</v>
+        <v>1116577.738355811</v>
       </c>
       <c r="G5">
-        <v>-121.7998757072627</v>
+        <v>4841108.644826905</v>
       </c>
       <c r="H5">
-        <v>496.1950489804715</v>
+        <v>3985224.505917884</v>
       </c>
       <c r="I5">
-        <v>-1130.80097573739</v>
+        <v>1114952.900782668</v>
       </c>
       <c r="J5">
-        <v>2166.930198668087</v>
+        <v>4843069.681379076</v>
       </c>
       <c r="K5">
-        <v>1188.582512686537</v>
+        <v>3985241.417119063</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,22 +620,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>131.7333006248789</v>
+        <v>1116577.738355811</v>
       </c>
       <c r="G6">
-        <v>-121.7998757072627</v>
+        <v>4841108.644826905</v>
       </c>
       <c r="H6">
-        <v>496.1950489804715</v>
+        <v>3985224.505917884</v>
       </c>
       <c r="I6">
-        <v>-1105.233932222978</v>
+        <v>1114984.756756634</v>
       </c>
       <c r="J6">
-        <v>2110.068265769508</v>
+        <v>4843021.029867575</v>
       </c>
       <c r="K6">
-        <v>1543.190911462364</v>
+        <v>3985499.767463021</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,22 +655,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>131.7333006248789</v>
+        <v>1116577.738355811</v>
       </c>
       <c r="G7">
-        <v>-121.7998757072627</v>
+        <v>4841108.644826905</v>
       </c>
       <c r="H7">
-        <v>496.1950489804715</v>
+        <v>3985224.505917884</v>
       </c>
       <c r="I7">
-        <v>-1079.037323783272</v>
+        <v>1115017.397154652</v>
       </c>
       <c r="J7">
-        <v>2053.206332870929</v>
+        <v>4842972.378356072</v>
       </c>
       <c r="K7">
-        <v>1877.00642417835</v>
+        <v>3985742.969126677</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,22 +690,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>131.7333006248789</v>
+        <v>1116577.738355811</v>
       </c>
       <c r="G8">
-        <v>-121.7998757072627</v>
+        <v>4841108.644826905</v>
       </c>
       <c r="H8">
-        <v>496.1950489804715</v>
+        <v>3985224.505917884</v>
       </c>
       <c r="I8">
-        <v>-1052.195647961176</v>
+        <v>1115050.841292442</v>
       </c>
       <c r="J8">
-        <v>1996.34439997235</v>
+        <v>4842923.726844569</v>
       </c>
       <c r="K8">
-        <v>2190.029050834492</v>
+        <v>3985971.022110031</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,22 +725,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>131.7333006248789</v>
+        <v>1116577.738355811</v>
       </c>
       <c r="G9">
-        <v>-121.7998757072627</v>
+        <v>4841108.644826905</v>
       </c>
       <c r="H9">
-        <v>496.1950489804715</v>
+        <v>3985224.505917884</v>
       </c>
       <c r="I9">
-        <v>-1024.693020565849</v>
+        <v>1115085.108961358</v>
       </c>
       <c r="J9">
-        <v>1939.482467073771</v>
+        <v>4842875.075333067</v>
       </c>
       <c r="K9">
-        <v>2482.258791430793</v>
+        <v>3986183.926413083</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,22 +760,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>131.7333006248789</v>
+        <v>1116577.738355811</v>
       </c>
       <c r="G10">
-        <v>-101.6872877870478</v>
+        <v>4841125.157591818</v>
       </c>
       <c r="H10">
-        <v>496.1950489804715</v>
+        <v>3985224.505917884</v>
       </c>
       <c r="I10">
-        <v>-996.5131662728668</v>
+        <v>1115120.220440095</v>
       </c>
       <c r="J10">
-        <v>1882.620534175193</v>
+        <v>4842826.423821565</v>
       </c>
       <c r="K10">
-        <v>2753.69564596725</v>
+        <v>3986381.682035834</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,22 +795,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>102.2404088252438</v>
+        <v>1116529.057825414</v>
       </c>
       <c r="G11">
-        <v>-81.5746998668329</v>
+        <v>4841141.670356731</v>
       </c>
       <c r="H11">
-        <v>611.3089614197607</v>
+        <v>3985423.760133544</v>
       </c>
       <c r="I11">
-        <v>-967.6394089929097</v>
+        <v>1115156.196506693</v>
       </c>
       <c r="J11">
-        <v>1825.758601276614</v>
+        <v>4842777.772310062</v>
       </c>
       <c r="K11">
-        <v>3004.339614443864</v>
+        <v>3986564.288978282</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,22 +830,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>84.91481441612268</v>
+        <v>1116500.460455886</v>
       </c>
       <c r="G12">
-        <v>-61.46211194661803</v>
+        <v>4841158.183121645</v>
       </c>
       <c r="H12">
-        <v>679.8766948175843</v>
+        <v>3985542.446134638</v>
       </c>
       <c r="I12">
-        <v>-938.0546620033036</v>
+        <v>1115193.058450835</v>
       </c>
       <c r="J12">
-        <v>1768.896668378035</v>
+        <v>4842729.12079856</v>
       </c>
       <c r="K12">
-        <v>3234.190696860637</v>
+        <v>3986731.747240429</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,22 +865,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>73.97762815516951</v>
+        <v>1116482.40769823</v>
       </c>
       <c r="G13">
-        <v>-41.34952402640315</v>
+        <v>4841174.695886559</v>
       </c>
       <c r="H13">
-        <v>728.8774195610748</v>
+        <v>3985627.262997939</v>
       </c>
       <c r="I13">
-        <v>-907.741417836546</v>
+        <v>1115230.828086438</v>
       </c>
       <c r="J13">
-        <v>1712.034735479456</v>
+        <v>4842680.469287057</v>
       </c>
       <c r="K13">
-        <v>3443.248893217567</v>
+        <v>3986884.056822273</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,22 +900,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>66.35007885342623</v>
+        <v>1116469.817778322</v>
       </c>
       <c r="G14">
-        <v>-21.23693610618826</v>
+        <v>4841191.208651471</v>
       </c>
       <c r="H14">
-        <v>767.0342576666735</v>
+        <v>3985693.309843951</v>
       </c>
       <c r="I14">
-        <v>-876.6817379198558</v>
+        <v>1115269.527764571</v>
       </c>
       <c r="J14">
-        <v>1655.172802580878</v>
+        <v>4842631.817775555</v>
       </c>
       <c r="K14">
-        <v>3631.514203514655</v>
+        <v>3987021.217723816</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,22 +935,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>60.6596986552861</v>
+        <v>1116460.425321045</v>
       </c>
       <c r="G15">
-        <v>-1.124348185973387</v>
+        <v>4841207.721416385</v>
       </c>
       <c r="H15">
-        <v>798.2876677893051</v>
+        <v>3985747.407333896</v>
       </c>
       <c r="I15">
-        <v>-844.8572419595986</v>
+        <v>1115309.180386674</v>
       </c>
       <c r="J15">
-        <v>1598.310869682299</v>
+        <v>4842583.166264053</v>
       </c>
       <c r="K15">
-        <v>3798.9866277519</v>
+        <v>3987143.229945056</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,22 +970,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>56.21061597837671</v>
+        <v>1116453.081731072</v>
       </c>
       <c r="G16">
-        <v>18.9882397342415</v>
+        <v>4841224.234181298</v>
       </c>
       <c r="H16">
-        <v>824.7570247748088</v>
+        <v>3985793.223958954</v>
       </c>
       <c r="I16">
-        <v>-812.2490970643195</v>
+        <v>1115349.809418118</v>
       </c>
       <c r="J16">
-        <v>1541.44893678372</v>
+        <v>4842534.51475255</v>
       </c>
       <c r="K16">
-        <v>3945.666165929303</v>
+        <v>3987250.093485995</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,22 +1005,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>52.61098414442503</v>
+        <v>1116447.14023208</v>
       </c>
       <c r="G17">
-        <v>39.10082765445639</v>
+        <v>4841240.746946212</v>
       </c>
       <c r="H17">
-        <v>847.7143711713867</v>
+        <v>3985832.96153674</v>
       </c>
       <c r="I17">
-        <v>-778.8380065999371</v>
+        <v>1115391.438902082</v>
       </c>
       <c r="J17">
-        <v>1484.587003885141</v>
+        <v>4842485.863241049</v>
       </c>
       <c r="K17">
-        <v>4071.552818046863</v>
+        <v>3987341.808346631</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,22 +1040,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>49.62200710156884</v>
+        <v>1116442.206670842</v>
       </c>
       <c r="G18">
-        <v>59.21341557467126</v>
+        <v>4841257.259711126</v>
       </c>
       <c r="H18">
-        <v>867.983436325232</v>
+        <v>3985868.045885745</v>
       </c>
       <c r="I18">
-        <v>-744.6041987705092</v>
+        <v>1115434.093473791</v>
       </c>
       <c r="J18">
-        <v>1427.725070986563</v>
+        <v>4842437.211729546</v>
       </c>
       <c r="K18">
-        <v>4176.646584104581</v>
+        <v>3987418.374526966</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,22 +1075,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>47.08907395032764</v>
+        <v>1116438.025848897</v>
       </c>
       <c r="G19">
-        <v>79.32600349488617</v>
+        <v>4841273.772476038</v>
       </c>
       <c r="H19">
-        <v>886.128328359178</v>
+        <v>3985899.45343809</v>
       </c>
       <c r="I19">
-        <v>-709.5274149178071</v>
+        <v>1115477.798375087</v>
       </c>
       <c r="J19">
-        <v>1370.863138087984</v>
+        <v>4842388.560218044</v>
       </c>
       <c r="K19">
-        <v>4260.947464102456</v>
+        <v>3987479.792026999</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,22 +1110,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>44.90719915441939</v>
+        <v>1116434.424478674</v>
       </c>
       <c r="G20">
-        <v>99.43859141510103</v>
+        <v>4841290.285240952</v>
       </c>
       <c r="H20">
-        <v>902.5523374673501</v>
+        <v>3985927.882261187</v>
       </c>
       <c r="I20">
-        <v>-673.5868975327816</v>
+        <v>1115522.579469369</v>
       </c>
       <c r="J20">
-        <v>1314.001205189405</v>
+        <v>4842339.908706541</v>
       </c>
       <c r="K20">
-        <v>4324.455458040488</v>
+        <v>3987526.06084673</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,22 +1145,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>43.00230971633655</v>
+        <v>1116431.28029638</v>
       </c>
       <c r="G21">
-        <v>119.5511793353159</v>
+        <v>4841306.798005866</v>
       </c>
       <c r="H21">
-        <v>917.5537944590083</v>
+        <v>3985953.848745023</v>
       </c>
       <c r="I21">
-        <v>-636.7613779718198</v>
+        <v>1115568.4632569</v>
       </c>
       <c r="J21">
-        <v>1257.139272290827</v>
+        <v>4842291.257195039</v>
       </c>
       <c r="K21">
-        <v>4367.170565918679</v>
+        <v>3987557.180986159</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,22 +1180,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>41.32047238238895</v>
+        <v>1116428.504280585</v>
       </c>
       <c r="G22">
-        <v>139.6637672555308</v>
+        <v>4841323.310770779</v>
       </c>
       <c r="H22">
-        <v>931.3596029124207</v>
+        <v>3985977.745643987</v>
       </c>
       <c r="I22">
-        <v>-599.0290638705258</v>
+        <v>1115615.476890486</v>
       </c>
       <c r="J22">
-        <v>1200.277339392248</v>
+        <v>4842242.605683536</v>
       </c>
       <c r="K22">
-        <v>4389.092787737027</v>
+        <v>3987573.152445286</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,22 +1215,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>39.82137184858264</v>
+        <v>1116426.029887447</v>
       </c>
       <c r="G23">
-        <v>159.7763551757457</v>
+        <v>4841339.823535692</v>
       </c>
       <c r="H23">
-        <v>944.1463652126412</v>
+        <v>3985999.878644586</v>
       </c>
       <c r="I23">
-        <v>-560.3676262475799</v>
+        <v>1115663.648191549</v>
       </c>
       <c r="J23">
-        <v>1143.415406493669</v>
+        <v>4842193.954172035</v>
       </c>
       <c r="K23">
-        <v>4390.222123495532</v>
+        <v>3987573.97522411</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,22 +1250,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>38.47419326751049</v>
+        <v>1116423.806254434</v>
       </c>
       <c r="G24">
-        <v>179.8889430959606</v>
+        <v>4841356.336300606</v>
       </c>
       <c r="H24">
-        <v>956.0542329529818</v>
+        <v>3986020.490339528</v>
       </c>
       <c r="I24">
-        <v>-520.7541862910396</v>
+        <v>1115713.005666582</v>
       </c>
       <c r="J24">
-        <v>1086.55347359509</v>
+        <v>4842145.302660531</v>
       </c>
       <c r="K24">
-        <v>4370.558573194195</v>
+        <v>3987559.649322633</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,22 +1285,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>37.25492870677031</v>
+        <v>1116421.793754408</v>
       </c>
       <c r="G25">
-        <v>200.0015310161754</v>
+        <v>4841372.849065519</v>
       </c>
       <c r="H25">
-        <v>967.1962957062118</v>
+        <v>3986039.776479037</v>
       </c>
       <c r="I25">
-        <v>-480.1653018192656</v>
+        <v>1115763.578524031</v>
       </c>
       <c r="J25">
-        <v>1029.691540696512</v>
+        <v>4842096.651149029</v>
       </c>
       <c r="K25">
-        <v>4330.102136833016</v>
+        <v>3987530.174740854</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,22 +1320,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>36.14456066131793</v>
+        <v>1116419.960997357</v>
       </c>
       <c r="G26">
-        <v>220.1141189363904</v>
+        <v>4841389.361830433</v>
       </c>
       <c r="H26">
-        <v>977.6651289360988</v>
+        <v>3986057.897304834</v>
       </c>
       <c r="I26">
-        <v>-438.5769534084633</v>
+        <v>1115815.396691568</v>
       </c>
       <c r="J26">
-        <v>972.8296077979327</v>
+        <v>4842047.999637527</v>
       </c>
       <c r="K26">
-        <v>4268.852814411994</v>
+        <v>3987485.551478773</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,22 +1355,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>35.12780431047857</v>
+        <v>1116418.282754383</v>
       </c>
       <c r="G27">
-        <v>240.2267068566052</v>
+        <v>4841405.874595345</v>
       </c>
       <c r="H27">
-        <v>987.5374739564509</v>
+        <v>3986074.985650821</v>
       </c>
       <c r="I27">
-        <v>-395.9645301786242</v>
+        <v>1115868.490833809</v>
       </c>
       <c r="J27">
-        <v>915.9676748993538</v>
+        <v>4841999.348126024</v>
       </c>
       <c r="K27">
-        <v>4186.810605931129</v>
+        <v>3987425.77953639</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,22 +1390,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>34.19221633692656</v>
+        <v>1116416.738486731</v>
       </c>
       <c r="G28">
-        <v>260.3392947768201</v>
+        <v>4841422.387360259</v>
       </c>
       <c r="H28">
-        <v>996.877655023564</v>
+        <v>3986091.152857836</v>
       </c>
       <c r="I28">
-        <v>-352.3028152294609</v>
+        <v>1115922.892370457</v>
       </c>
       <c r="J28">
-        <v>859.1057420007752</v>
+        <v>4841950.696614522</v>
       </c>
       <c r="K28">
-        <v>4083.975511390422</v>
+        <v>3987350.858913705</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,22 +1425,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>33.32755050208638</v>
+        <v>1116415.31128211</v>
       </c>
       <c r="G29">
-        <v>280.451882697035</v>
+        <v>4841438.900125173</v>
       </c>
       <c r="H29">
-        <v>1005.740121641299</v>
+        <v>3986106.4931742</v>
       </c>
       <c r="I29">
-        <v>-307.5659707177152</v>
+        <v>1115978.633494896</v>
       </c>
       <c r="J29">
-        <v>802.2438091021963</v>
+        <v>4841902.04510302</v>
       </c>
       <c r="K29">
-        <v>3960.347530789873</v>
+        <v>3987260.789610719</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,22 +1460,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>32.52528315780793</v>
+        <v>1116413.987071514</v>
       </c>
       <c r="G30">
-        <v>300.5644706172498</v>
+        <v>4841455.412890086</v>
       </c>
       <c r="H30">
-        <v>1014.171371777857</v>
+        <v>3986121.087084678</v>
       </c>
       <c r="I30">
-        <v>-261.7275225670102</v>
+        <v>1116035.747193244</v>
       </c>
       <c r="J30">
-        <v>745.3818762036175</v>
+        <v>4841853.393591518</v>
       </c>
       <c r="K30">
-        <v>3815.92666412948</v>
+        <v>3987155.57162743</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,22 +1495,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>31.77825819007731</v>
+        <v>1116412.754043166</v>
       </c>
       <c r="G31">
-        <v>320.6770585374647</v>
+        <v>4841471.925655</v>
       </c>
       <c r="H31">
-        <v>1022.211428531895</v>
+        <v>3986135.003866485</v>
       </c>
       <c r="I31">
-        <v>-214.7603448011933</v>
+        <v>1116094.26726387</v>
       </c>
       <c r="J31">
-        <v>688.5199433050389</v>
+        <v>4841804.742080014</v>
       </c>
       <c r="K31">
-        <v>3650.712911409246</v>
+        <v>3987035.20496384</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,22 +1530,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>31.08041744198052</v>
+        <v>1116411.602197563</v>
       </c>
       <c r="G32">
-        <v>340.7896464576796</v>
+        <v>4841488.438419913</v>
       </c>
       <c r="H32">
-        <v>1029.894989167164</v>
+        <v>3986148.303578184</v>
       </c>
       <c r="I32">
-        <v>-166.6366434919044</v>
+        <v>1116154.228337397</v>
       </c>
       <c r="J32">
-        <v>631.65801040646</v>
+        <v>4841756.090568513</v>
       </c>
       <c r="K32">
-        <v>3464.706272629169</v>
+        <v>3986899.689619947</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,22 +1565,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>30.42659332778848</v>
+        <v>1116410.523005163</v>
       </c>
       <c r="G33">
-        <v>360.9022343778944</v>
+        <v>4841504.951184826</v>
       </c>
       <c r="H33">
-        <v>1037.252330052671</v>
+        <v>3986161.038626072</v>
       </c>
       <c r="I33">
-        <v>-117.3279403108673</v>
+        <v>1116215.665897197</v>
       </c>
       <c r="J33">
-        <v>574.7960775078815</v>
+        <v>4841707.43905701</v>
       </c>
       <c r="K33">
-        <v>3257.90674778925</v>
+        <v>3986749.025595752</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,22 +1600,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>29.812347372745</v>
+        <v>1116409.509139887</v>
       </c>
       <c r="G34">
-        <v>381.0148222981094</v>
+        <v>4841521.46394974</v>
       </c>
       <c r="H34">
-        <v>1044.310027205483</v>
+        <v>3986173.255011396</v>
       </c>
       <c r="I34">
-        <v>-66.80505567717231</v>
+        <v>1116278.616300385</v>
       </c>
       <c r="J34">
-        <v>517.9341446093026</v>
+        <v>4841658.787545508</v>
       </c>
       <c r="K34">
-        <v>3030.314336889488</v>
+        <v>3986583.212891256</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,22 +1635,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>29.23384312960903</v>
+        <v>1116408.554269352</v>
       </c>
       <c r="G35">
-        <v>401.1274102183243</v>
+        <v>4841537.976714653</v>
       </c>
       <c r="H35">
-        <v>1051.091535765105</v>
+        <v>3986184.993333379</v>
       </c>
       <c r="I35">
-        <v>-15.03809148957436</v>
+        <v>1116343.116799339</v>
       </c>
       <c r="J35">
-        <v>461.0722117107238</v>
+        <v>4841610.136034005</v>
       </c>
       <c r="K35">
-        <v>2781.929039929883</v>
+        <v>3986402.251506457</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,22 +1670,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>28.6877451478281</v>
+        <v>1116407.652888111</v>
       </c>
       <c r="G36">
-        <v>421.2399981385392</v>
+        <v>4841554.489479566</v>
       </c>
       <c r="H36">
-        <v>1057.617660296566</v>
+        <v>3986196.289603285</v>
       </c>
       <c r="I36">
-        <v>38.00358656640956</v>
+        <v>1116409.20556374</v>
       </c>
       <c r="J36">
-        <v>404.2102788121451</v>
+        <v>4841561.484522503</v>
       </c>
       <c r="K36">
-        <v>2512.750856910437</v>
+        <v>3986206.141441357</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,22 +1705,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>28.17113791254644</v>
+        <v>1116406.800183859</v>
       </c>
       <c r="G37">
-        <v>441.352586058754</v>
+        <v>4841571.00224448</v>
       </c>
       <c r="H37">
-        <v>1063.906939709677</v>
+        <v>3986207.175910682</v>
       </c>
       <c r="I37">
-        <v>92.35136714707295</v>
+        <v>1116476.921703164</v>
       </c>
       <c r="J37">
-        <v>347.3483459135663</v>
+        <v>4841512.833011001</v>
       </c>
       <c r="K37">
-        <v>2222.779787831148</v>
+        <v>3985994.882695954</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,22 +1740,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>27.68146025196212</v>
+        <v>1116405.991929165</v>
       </c>
       <c r="G38">
-        <v>461.4651739789689</v>
+        <v>4841587.515009393</v>
       </c>
       <c r="H38">
-        <v>1069.975964746308</v>
+        <v>3986217.680972998</v>
       </c>
       <c r="I38">
-        <v>148.0374118254944</v>
+        <v>1116546.305290223</v>
       </c>
       <c r="J38">
-        <v>290.4864130149877</v>
+        <v>4841464.181499499</v>
       </c>
       <c r="K38">
-        <v>1912.015832692017</v>
+        <v>3985768.47527025</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,22 +1775,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>27.21645184273046</v>
+        <v>1116405.224393172</v>
       </c>
       <c r="G39">
-        <v>481.5777618991838</v>
+        <v>4841604.027774307</v>
       </c>
       <c r="H39">
-        <v>1075.839641732804</v>
+        <v>3986227.830592049</v>
       </c>
       <c r="I39">
-        <v>205.0946741238996</v>
+        <v>1116617.397384283</v>
       </c>
       <c r="J39">
-        <v>233.6244801164088</v>
+        <v>4841415.529987996</v>
       </c>
       <c r="K39">
-        <v>1580.458991493042</v>
+        <v>3985526.919164243</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,22 +1810,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>26.77410926267929</v>
+        <v>1116404.494269061</v>
       </c>
       <c r="G40">
-        <v>501.6903498193986</v>
+        <v>4841620.54053922</v>
       </c>
       <c r="H40">
-        <v>1081.511413154715</v>
+        <v>3986237.64803585</v>
       </c>
       <c r="I40">
-        <v>263.5569190146848</v>
+        <v>1116690.240055755</v>
       </c>
       <c r="J40">
-        <v>176.76254721783</v>
+        <v>4841366.878476494</v>
       </c>
       <c r="K40">
-        <v>1228.109264234225</v>
+        <v>3985270.214377935</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,22 +1845,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>26.35264964095772</v>
+        <v>1116403.798614051</v>
       </c>
       <c r="G41">
-        <v>521.8029377396135</v>
+        <v>4841637.053304133</v>
       </c>
       <c r="H41">
-        <v>1087.00344326773</v>
+        <v>3986247.154359885</v>
       </c>
       <c r="I41">
-        <v>323.4587429016255</v>
+        <v>1116764.876410997</v>
       </c>
       <c r="J41">
-        <v>119.9006143192514</v>
+        <v>4841318.226964992</v>
       </c>
       <c r="K41">
-        <v>854.9666509155662</v>
+        <v>3984998.360911325</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,22 +1880,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>25.95048040111713</v>
+        <v>1116403.134799461</v>
       </c>
       <c r="G42">
-        <v>541.9155256598284</v>
+        <v>4841653.566069047</v>
       </c>
       <c r="H42">
-        <v>1092.326775191586</v>
+        <v>3986256.368679029</v>
       </c>
       <c r="I42">
-        <v>384.835594093116</v>
+        <v>1116841.350617824</v>
       </c>
       <c r="J42">
-        <v>63.03868142067252</v>
+        <v>4841269.575453489</v>
       </c>
       <c r="K42">
-        <v>461.031151537064</v>
+        <v>3984711.358764412</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,22 +1915,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>25.56617392613926</v>
+        <v>1116402.500468885</v>
       </c>
       <c r="G43">
-        <v>562.0281135800434</v>
+        <v>4841670.078833961</v>
       </c>
       <c r="H43">
-        <v>1097.491464588171</v>
+        <v>3986265.308398938</v>
       </c>
       <c r="I43">
-        <v>447.7237937795286</v>
+        <v>1116919.707931638</v>
       </c>
       <c r="J43">
-        <v>6.176748522093667</v>
+        <v>4841220.923941987</v>
       </c>
       <c r="K43">
-        <v>46.30276609871965</v>
+        <v>3984409.207937199</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,22 +1950,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>25.19844622658007</v>
+        <v>1116401.89350299</v>
       </c>
       <c r="G44">
-        <v>582.1407015002582</v>
+        <v>4841686.591598873</v>
       </c>
       <c r="H44">
-        <v>1102.50669399118</v>
+        <v>3986273.989413942</v>
       </c>
       <c r="I44">
-        <v>512.1605575271359</v>
+        <v>1116999.994722218</v>
       </c>
       <c r="J44">
-        <v>-50.68518437648493</v>
+        <v>4841172.272430484</v>
       </c>
       <c r="K44">
-        <v>-389.218505399466</v>
+        <v>3984091.908429682</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,22 +1985,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>24.8461388853452</v>
+        <v>1116401.31198971</v>
       </c>
       <c r="G45">
-        <v>602.253289420473</v>
+        <v>4841703.104363787</v>
       </c>
       <c r="H45">
-        <v>1107.380871053573</v>
+        <v>3986282.426277106</v>
       </c>
       <c r="I45">
-        <v>578.1840173012927</v>
+        <v>1117082.258501153</v>
       </c>
       <c r="J45">
-        <v>-107.5471172750638</v>
+        <v>4841123.620918982</v>
       </c>
       <c r="K45">
-        <v>-845.5326629574953</v>
+        <v>3983759.460241864</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,22 +2020,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>24.50820370057255</v>
+        <v>1116400.754198899</v>
       </c>
       <c r="G46">
-        <v>622.365877340688</v>
+        <v>4841719.6171287</v>
       </c>
       <c r="H46">
-        <v>1112.121713353363</v>
+        <v>3986290.632347025</v>
       </c>
       <c r="I46">
-        <v>645.8332440319193</v>
+        <v>1117166.547949964</v>
       </c>
       <c r="J46">
-        <v>-164.4090501736426</v>
+        <v>4841074.969407479</v>
       </c>
       <c r="K46">
-        <v>-1322.639706575368</v>
+        <v>3983411.863373744</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,22 +2055,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>24.18368956281846</v>
+        <v>1116400.21856067</v>
       </c>
       <c r="G47">
-        <v>642.4784652609028</v>
+        <v>4841736.129893614</v>
       </c>
       <c r="H47">
-        <v>1116.736321905893</v>
+        <v>3986298.619915063</v>
       </c>
       <c r="I47">
-        <v>715.1482707346401</v>
+        <v>1117252.912948906</v>
       </c>
       <c r="J47">
-        <v>-221.2709830722215</v>
+        <v>4841026.317895977</v>
       </c>
       <c r="K47">
-        <v>-1820.539636253083</v>
+        <v>3983049.117825323</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,22 +2090,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>23.87173119234813</v>
+        <v>1116399.703646804</v>
       </c>
       <c r="G48">
-        <v>662.5910531811177</v>
+        <v>4841752.642658528</v>
       </c>
       <c r="H48">
-        <v>1121.231245140628</v>
+        <v>3986306.400316098</v>
       </c>
       <c r="I48">
-        <v>786.1701162012596</v>
+        <v>1117341.404606493</v>
       </c>
       <c r="J48">
-        <v>-278.1329159707998</v>
+        <v>4840977.666384474</v>
       </c>
       <c r="K48">
-        <v>-2339.232451990636</v>
+        <v>3982671.223596598</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,22 +2125,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>23.57153943281466</v>
+        <v>1116399.208154732</v>
       </c>
       <c r="G49">
-        <v>682.7036411013327</v>
+        <v>4841769.15542344</v>
       </c>
       <c r="H49">
-        <v>1125.612534789253</v>
+        <v>3986313.98402526</v>
       </c>
       <c r="I49">
-        <v>858.9408092735957</v>
+        <v>1117432.075289737</v>
       </c>
       <c r="J49">
-        <v>-334.9948488693787</v>
+        <v>4840929.014872973</v>
       </c>
       <c r="K49">
-        <v>-2878.718153788035</v>
+        <v>3982278.180687573</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,22 +2160,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>23.28239285341838</v>
+        <v>1116398.73089367</v>
       </c>
       <c r="G50">
-        <v>702.8162290215475</v>
+        <v>4841785.668188354</v>
       </c>
       <c r="H50">
-        <v>1129.885794882061</v>
+        <v>3986321.380742739</v>
       </c>
       <c r="I50">
-        <v>933.5034137150276</v>
+        <v>1117524.978655141</v>
       </c>
       <c r="J50">
-        <v>-391.8567817679576</v>
+        <v>4840880.363361469</v>
       </c>
       <c r="K50">
-        <v>-3438.996741645278</v>
+        <v>3981869.989098245</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,22 +2195,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>23.00363045610335</v>
+        <v>1116398.270772586</v>
       </c>
       <c r="G51">
-        <v>722.9288169417623</v>
+        <v>4841802.180953268</v>
       </c>
       <c r="H51">
-        <v>1134.056224847957</v>
+        <v>3986328.599468383</v>
       </c>
       <c r="I51">
-        <v>1009.902053694491</v>
+        <v>1117620.169680448</v>
       </c>
       <c r="J51">
-        <v>-448.7187146665364</v>
+        <v>4840831.711849967</v>
       </c>
       <c r="K51">
-        <v>-4020.068215562363</v>
+        <v>3981446.648828615</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,22 +2230,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>22.73464531998907</v>
+        <v>1116397.826789704</v>
       </c>
       <c r="G52">
-        <v>743.0414048619773</v>
+        <v>4841818.693718181</v>
       </c>
       <c r="H52">
-        <v>1138.128657549598</v>
+        <v>3986335.648567547</v>
       </c>
       <c r="I52">
-        <v>1088.181939897991</v>
+        <v>1117717.70469718</v>
       </c>
       <c r="J52">
-        <v>-505.5806475651153</v>
+        <v>4840783.060338465</v>
       </c>
       <c r="K52">
-        <v>-4621.932575539289</v>
+        <v>3981008.159878683</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,22 +2265,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>22.47487904395883</v>
+        <v>1116397.398023336</v>
       </c>
       <c r="G53">
-        <v>763.1539927821922</v>
+        <v>4841835.206483094</v>
       </c>
       <c r="H53">
-        <v>1142.107592951521</v>
+        <v>3986342.535829354</v>
       </c>
       <c r="I53">
-        <v>1168.389396283074</v>
+        <v>1117817.641423967</v>
       </c>
       <c r="J53">
-        <v>-562.4425804636936</v>
+        <v>4840734.408826963</v>
       </c>
       <c r="K53">
-        <v>-5244.589821576054</v>
+        <v>3980554.52224845</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,22 +2300,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>22.22381687160621</v>
+        <v>1116396.983623833</v>
       </c>
       <c r="G54">
-        <v>783.2665807024069</v>
+        <v>4841851.719248008</v>
       </c>
       <c r="H54">
-        <v>1145.997228009486</v>
+        <v>3986349.268518446</v>
       </c>
       <c r="I54">
-        <v>1250.571887492135</v>
+        <v>1117920.039000712</v>
       </c>
       <c r="J54">
-        <v>-619.3045133622725</v>
+        <v>4840685.75731546</v>
       </c>
       <c r="K54">
-        <v>-5888.039953672666</v>
+        <v>3980085.735937914</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,22 +2335,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>230.442338386599</v>
+        <v>1116575.704224601</v>
       </c>
       <c r="G55">
-        <v>-142.3226402546131</v>
+        <v>4841126.610653123</v>
       </c>
       <c r="H55">
-        <v>743.6787806522207</v>
+        <v>3985228.837974518</v>
       </c>
       <c r="I55">
-        <v>-1992.798145629658</v>
+        <v>1114861.315762931</v>
       </c>
       <c r="J55">
-        <v>1925.771776497111</v>
+        <v>4843219.66461119</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984377.062813542</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,22 +2370,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>230.442338386599</v>
+        <v>1116575.704224601</v>
       </c>
       <c r="G56">
-        <v>-142.3226402546131</v>
+        <v>4841126.610653123</v>
       </c>
       <c r="H56">
-        <v>743.6787806522207</v>
+        <v>3985228.837974518</v>
       </c>
       <c r="I56">
-        <v>-1953.455003936942</v>
+        <v>1114890.929758288</v>
       </c>
       <c r="J56">
-        <v>1878.925848744467</v>
+        <v>4843171.013059218</v>
       </c>
       <c r="K56">
-        <v>295.3984636877858</v>
+        <v>3984680.859319547</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,22 +2405,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>230.442338386599</v>
+        <v>1116575.704224601</v>
       </c>
       <c r="G57">
-        <v>-142.3226402546131</v>
+        <v>4841126.610653123</v>
       </c>
       <c r="H57">
-        <v>743.6787806522207</v>
+        <v>3985228.837974518</v>
       </c>
       <c r="I57">
-        <v>-1913.14307357507</v>
+        <v>1114921.272971036</v>
       </c>
       <c r="J57">
-        <v>1832.079920991823</v>
+        <v>4843122.361507246</v>
       </c>
       <c r="K57">
-        <v>576.0670059181515</v>
+        <v>3984969.507139211</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,22 +2440,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>230.442338386599</v>
+        <v>1116575.704224601</v>
       </c>
       <c r="G58">
-        <v>-142.3226402546131</v>
+        <v>4841126.610653123</v>
       </c>
       <c r="H58">
-        <v>743.6787806522207</v>
+        <v>3985228.837974518</v>
       </c>
       <c r="I58">
-        <v>-1871.838499014332</v>
+        <v>1114952.363357483</v>
       </c>
       <c r="J58">
-        <v>1785.233993239178</v>
+        <v>4843073.709955274</v>
       </c>
       <c r="K58">
-        <v>842.0056266910992</v>
+        <v>3985243.006272531</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,22 +2475,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>230.442338386599</v>
+        <v>1116575.704224601</v>
       </c>
       <c r="G59">
-        <v>-142.3226402546131</v>
+        <v>4841126.610653123</v>
       </c>
       <c r="H59">
-        <v>743.6787806522207</v>
+        <v>3985228.837974518</v>
       </c>
       <c r="I59">
-        <v>-1829.516837304548</v>
+        <v>1114984.219316094</v>
       </c>
       <c r="J59">
-        <v>1738.388065486534</v>
+        <v>4843025.058403303</v>
       </c>
       <c r="K59">
-        <v>1093.214326006627</v>
+        <v>3985501.356719509</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,22 +2510,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>230.442338386599</v>
+        <v>1116575.704224601</v>
       </c>
       <c r="G60">
-        <v>-142.3226402546131</v>
+        <v>4841126.610653123</v>
       </c>
       <c r="H60">
-        <v>743.6787806522207</v>
+        <v>3985228.837974518</v>
       </c>
       <c r="I60">
-        <v>-1786.153043610374</v>
+        <v>1115016.859698379</v>
       </c>
       <c r="J60">
-        <v>1691.54213773389</v>
+        <v>4842976.406851331</v>
       </c>
       <c r="K60">
-        <v>1329.693103864738</v>
+        <v>3985744.558480144</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,22 +2545,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>230.442338386599</v>
+        <v>1116575.704224601</v>
       </c>
       <c r="G61">
-        <v>-142.3226402546131</v>
+        <v>4841126.610653123</v>
       </c>
       <c r="H61">
-        <v>743.6787806522207</v>
+        <v>3985228.837974518</v>
       </c>
       <c r="I61">
-        <v>-1741.721456390441</v>
+        <v>1115050.303820048</v>
       </c>
       <c r="J61">
-        <v>1644.696209981246</v>
+        <v>4842927.755299359</v>
       </c>
       <c r="K61">
-        <v>1551.441960265429</v>
+        <v>3985972.611554436</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,22 +2580,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>230.442338386599</v>
+        <v>1116575.704224601</v>
       </c>
       <c r="G62">
-        <v>-142.3226402546131</v>
+        <v>4841126.610653123</v>
       </c>
       <c r="H62">
-        <v>743.6787806522207</v>
+        <v>3985228.837974518</v>
       </c>
       <c r="I62">
-        <v>-1696.195782211528</v>
+        <v>1115084.571472446</v>
       </c>
       <c r="J62">
-        <v>1597.850282228602</v>
+        <v>4842879.103747387</v>
       </c>
       <c r="K62">
-        <v>1758.460895208701</v>
+        <v>3986185.515942387</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,22 +2615,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>230.442338386599</v>
+        <v>1116575.704224601</v>
       </c>
       <c r="G63">
-        <v>-118.8211662298138</v>
+        <v>4841143.123479318</v>
       </c>
       <c r="H63">
-        <v>743.6787806522207</v>
+        <v>3985228.837974518</v>
       </c>
       <c r="I63">
-        <v>-1649.549080188811</v>
+        <v>1115119.682934259</v>
       </c>
       <c r="J63">
-        <v>1551.004354475958</v>
+        <v>4842830.452195415</v>
       </c>
       <c r="K63">
-        <v>1950.749908694554</v>
+        <v>3986383.271643994</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,22 +2650,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>178.8501371751211</v>
+        <v>1116527.023782889</v>
       </c>
       <c r="G64">
-        <v>-95.31969220501445</v>
+        <v>4841159.636305511</v>
       </c>
       <c r="H64">
-        <v>916.2072535075117</v>
+        <v>3985428.092406773</v>
       </c>
       <c r="I64">
-        <v>-1601.753746042964</v>
+        <v>1115155.658983517</v>
       </c>
       <c r="J64">
-        <v>1504.158426723314</v>
+        <v>4842781.800643444</v>
       </c>
       <c r="K64">
-        <v>2128.309000722987</v>
+        <v>3986565.878659259</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,22 +2685,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>148.5423071075761</v>
+        <v>1116498.426465458</v>
       </c>
       <c r="G65">
-        <v>-71.81821818021514</v>
+        <v>4841176.149131705</v>
       </c>
       <c r="H65">
-        <v>1018.9740353812</v>
+        <v>3985546.778536882</v>
       </c>
       <c r="I65">
-        <v>-1552.781495764676</v>
+        <v>1115192.52090989</v>
       </c>
       <c r="J65">
-        <v>1457.31249897067</v>
+        <v>4842733.149091472</v>
       </c>
       <c r="K65">
-        <v>2291.138171294002</v>
+        <v>3986733.336988181</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,22 +2720,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>129.4097812740296</v>
+        <v>1116480.37374069</v>
       </c>
       <c r="G66">
-        <v>-48.3167441554158</v>
+        <v>4841192.661957899</v>
       </c>
       <c r="H66">
-        <v>1092.414508645068</v>
+        <v>3985631.595492383</v>
       </c>
       <c r="I66">
-        <v>-1502.603348876929</v>
+        <v>1115230.290527288</v>
       </c>
       <c r="J66">
-        <v>1410.466571218025</v>
+        <v>4842684.4975395</v>
       </c>
       <c r="K66">
-        <v>2439.2374204076</v>
+        <v>3986885.64663076</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,22 +2755,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>116.0668354211962</v>
+        <v>1116467.783843717</v>
       </c>
       <c r="G67">
-        <v>-24.81527013061648</v>
+        <v>4841209.174784092</v>
       </c>
       <c r="H67">
-        <v>1149.60256582988</v>
+        <v>3985697.642410189</v>
       </c>
       <c r="I67">
-        <v>-1451.189611285121</v>
+        <v>1115268.990186766</v>
       </c>
       <c r="J67">
-        <v>1363.620643465381</v>
+        <v>4842635.845987529</v>
       </c>
       <c r="K67">
-        <v>2572.606748063777</v>
+        <v>3987022.807586997</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,22 +2790,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>106.1125982393445</v>
+        <v>1116458.391403551</v>
       </c>
       <c r="G68">
-        <v>-1.313796105817171</v>
+        <v>4841225.687610287</v>
       </c>
       <c r="H68">
-        <v>1196.444020574297</v>
+        <v>3985751.73995894</v>
       </c>
       <c r="I68">
-        <v>-1398.509857704885</v>
+        <v>1115308.642789757</v>
       </c>
       <c r="J68">
-        <v>1316.774715712737</v>
+        <v>4842587.194435556</v>
       </c>
       <c r="K68">
-        <v>2691.246154262535</v>
+        <v>3987144.819856891</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,22 +2825,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>98.32977483114789</v>
+        <v>1116451.047826956</v>
       </c>
       <c r="G69">
-        <v>22.18767791898216</v>
+        <v>4841242.20043648</v>
       </c>
       <c r="H69">
-        <v>1236.115313482345</v>
+        <v>3985797.556633802</v>
       </c>
       <c r="I69">
-        <v>-1344.532913657221</v>
+        <v>1115349.271801617</v>
       </c>
       <c r="J69">
-        <v>1269.928787960093</v>
+        <v>4842538.542883584</v>
       </c>
       <c r="K69">
-        <v>2795.155639003875</v>
+        <v>3987251.683440443</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,22 +2860,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>92.03290400796283</v>
+        <v>1116445.106338788</v>
       </c>
       <c r="G70">
-        <v>45.68915194378148</v>
+        <v>4841258.713262674</v>
       </c>
       <c r="H70">
-        <v>1270.522934860868</v>
+        <v>3985837.294254784</v>
       </c>
       <c r="I70">
-        <v>-1289.226837020261</v>
+        <v>1115390.901265515</v>
       </c>
       <c r="J70">
-        <v>1223.082860207449</v>
+        <v>4842489.891331613</v>
       </c>
       <c r="K70">
-        <v>2884.335202287796</v>
+        <v>3987343.398337651</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,22 +2895,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>86.80425752395027</v>
+        <v>1116440.172786537</v>
       </c>
       <c r="G71">
-        <v>69.19062596858079</v>
+        <v>4841275.226088868</v>
       </c>
       <c r="H71">
-        <v>1300.901459776713</v>
+        <v>3985872.378641927</v>
       </c>
       <c r="I71">
-        <v>-1232.558899126774</v>
+        <v>1115433.555816663</v>
       </c>
       <c r="J71">
-        <v>1176.236932454805</v>
+        <v>4842441.239779641</v>
       </c>
       <c r="K71">
-        <v>2958.784844114298</v>
+        <v>3987419.964548517</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,22 +2930,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>82.37337303551649</v>
+        <v>1116435.991972209</v>
       </c>
       <c r="G72">
-        <v>92.69209999338014</v>
+        <v>4841291.738915062</v>
       </c>
       <c r="H72">
-        <v>1328.096352612901</v>
+        <v>3985903.786228412</v>
       </c>
       <c r="I72">
-        <v>-1174.495565396206</v>
+        <v>1115477.260696893</v>
       </c>
       <c r="J72">
-        <v>1129.39100470216</v>
+        <v>4842392.58822767</v>
       </c>
       <c r="K72">
-        <v>3018.504564483381</v>
+        <v>3987481.382073041</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,22 +2965,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>78.5565983274445</v>
+        <v>1116432.390608547</v>
       </c>
       <c r="G73">
-        <v>116.1935740181794</v>
+        <v>4841308.251741256</v>
       </c>
       <c r="H73">
-        <v>1352.712049791023</v>
+        <v>3985932.215082412</v>
       </c>
       <c r="I73">
-        <v>-1115.00247548981</v>
+        <v>1115522.04176959</v>
       </c>
       <c r="J73">
-        <v>1082.545076949516</v>
+        <v>4842343.936675697</v>
       </c>
       <c r="K73">
-        <v>3063.494363395045</v>
+        <v>3987527.650911222</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,22 +3000,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>75.22435678792871</v>
+        <v>1116429.246431981</v>
       </c>
       <c r="G74">
-        <v>139.6950480429788</v>
+        <v>4841324.764567451</v>
       </c>
       <c r="H74">
-        <v>1375.195678490031</v>
+        <v>3985958.181594475</v>
       </c>
       <c r="I74">
-        <v>-1054.044422977109</v>
+        <v>1115567.925535004</v>
       </c>
       <c r="J74">
-        <v>1035.699149196872</v>
+        <v>4842295.285123725</v>
       </c>
       <c r="K74">
-        <v>3093.75424084929</v>
+        <v>3987558.77106306</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,22 +3035,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>72.28230245404092</v>
+        <v>1116426.470421244</v>
       </c>
       <c r="G75">
-        <v>163.1965220677781</v>
+        <v>4841341.277393644</v>
       </c>
       <c r="H75">
-        <v>1395.887313397811</v>
+        <v>3985982.078519415</v>
       </c>
       <c r="I75">
-        <v>-991.5853345016616</v>
+        <v>1115614.939145929</v>
       </c>
       <c r="J75">
-        <v>988.8532214442283</v>
+        <v>4842246.633571754</v>
       </c>
       <c r="K75">
-        <v>3109.284196846117</v>
+        <v>3987574.742528556</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,22 +3070,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>69.65991137412226</v>
+        <v>1116423.996032613</v>
       </c>
       <c r="G76">
-        <v>186.6979960925774</v>
+        <v>4841357.790219838</v>
       </c>
       <c r="H76">
-        <v>1415.051639634955</v>
+        <v>3986004.211544073</v>
       </c>
       <c r="I76">
-        <v>-927.5882484338144</v>
+        <v>1115663.110423772</v>
       </c>
       <c r="J76">
-        <v>942.0072936915841</v>
+        <v>4842197.982019782</v>
       </c>
       <c r="K76">
-        <v>3110.084231385524</v>
+        <v>3987575.565307709</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,22 +3105,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>67.30327883721628</v>
+        <v>1116421.77240365</v>
       </c>
       <c r="G77">
-        <v>210.1994701173768</v>
+        <v>4841374.303046032</v>
       </c>
       <c r="H77">
-        <v>1432.898711224041</v>
+        <v>3986024.823261421</v>
       </c>
       <c r="I77">
-        <v>-862.0152929977866</v>
+        <v>1115712.467875015</v>
       </c>
       <c r="J77">
-        <v>895.16136593894</v>
+        <v>4842149.33046781</v>
       </c>
       <c r="K77">
-        <v>3096.154344467513</v>
+        <v>3987561.239400519</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,22 +3140,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>65.17040753469756</v>
+        <v>1116419.759907291</v>
       </c>
       <c r="G78">
-        <v>233.7009441421761</v>
+        <v>4841390.815872225</v>
       </c>
       <c r="H78">
-        <v>1449.598022632525</v>
+        <v>3986044.109421894</v>
       </c>
       <c r="I78">
-        <v>-794.8276638601586</v>
+        <v>1115763.040708086</v>
       </c>
       <c r="J78">
-        <v>848.315438186296</v>
+        <v>4842100.678915839</v>
       </c>
       <c r="K78">
-        <v>3067.494536092082</v>
+        <v>3987531.764806987</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,22 +3175,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>63.22802996084148</v>
+        <v>1116417.927153579</v>
       </c>
       <c r="G79">
-        <v>257.2024181669754</v>
+        <v>4841407.32869842</v>
       </c>
       <c r="H79">
-        <v>1465.288322540294</v>
+        <v>3986062.230267389</v>
       </c>
       <c r="I79">
-        <v>-725.9856011665023</v>
+        <v>1115814.858850646</v>
       </c>
       <c r="J79">
-        <v>801.4695104336517</v>
+        <v>4842052.027363867</v>
       </c>
       <c r="K79">
-        <v>3024.104806259233</v>
+        <v>3987487.141527112</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,22 +3210,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>61.44940823083531</v>
+        <v>1116416.248913663</v>
       </c>
       <c r="G80">
-        <v>280.7038921917747</v>
+        <v>4841423.841524613</v>
       </c>
       <c r="H80">
-        <v>1480.084627989126</v>
+        <v>3986079.318631952</v>
       </c>
       <c r="I80">
-        <v>-655.4483660125512</v>
+        <v>1115867.952967295</v>
       </c>
       <c r="J80">
-        <v>754.6235826810075</v>
+        <v>4842003.375811894</v>
       </c>
       <c r="K80">
-        <v>2965.985154968965</v>
+        <v>3987427.369560894</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,22 +3245,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>59.81277512918974</v>
+        <v>1116414.704648823</v>
       </c>
       <c r="G81">
-        <v>304.205366216574</v>
+        <v>4841440.354350807</v>
       </c>
       <c r="H81">
-        <v>1494.08334579442</v>
+        <v>3986095.485856541</v>
       </c>
       <c r="I81">
-        <v>-583.1742163360009</v>
+        <v>1115922.35447772</v>
       </c>
       <c r="J81">
-        <v>707.7776549283635</v>
+        <v>4841954.724259922</v>
       </c>
       <c r="K81">
-        <v>2893.135582221279</v>
+        <v>3987352.448908334</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,22 +3280,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>58.30020681154795</v>
+        <v>1116413.277446802</v>
       </c>
       <c r="G82">
-        <v>327.7068402413734</v>
+        <v>4841456.867177001</v>
       </c>
       <c r="H82">
-        <v>1507.366082857981</v>
+        <v>3986110.82618958</v>
       </c>
       <c r="I82">
-        <v>-509.1203822146631</v>
+        <v>1115978.095575291</v>
       </c>
       <c r="J82">
-        <v>660.9317271757193</v>
+        <v>4841906.072707951</v>
       </c>
       <c r="K82">
-        <v>2805.556088016172</v>
+        <v>3987262.379569432</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,22 +3315,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>56.89679277766457</v>
+        <v>1116411.953238619</v>
       </c>
       <c r="G83">
-        <v>351.2083142661726</v>
+        <v>4841473.380003194</v>
       </c>
       <c r="H83">
-        <v>1520.002528614167</v>
+        <v>3986125.420115923</v>
       </c>
       <c r="I83">
-        <v>-433.2430405563658</v>
+        <v>1116035.209246109</v>
       </c>
       <c r="J83">
-        <v>614.0857994230752</v>
+        <v>4841857.42115598</v>
       </c>
       <c r="K83">
-        <v>2703.246672353647</v>
+        <v>3987157.161544186</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,22 +3350,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>55.59001476800081</v>
+        <v>1116410.720212517</v>
       </c>
       <c r="G84">
-        <v>374.709788290972</v>
+        <v>4841489.892829388</v>
       </c>
       <c r="H84">
-        <v>1532.052668202426</v>
+        <v>3986139.336912858</v>
       </c>
       <c r="I84">
-        <v>-355.4972891656074</v>
+        <v>1116093.729288528</v>
       </c>
       <c r="J84">
-        <v>567.2398716704312</v>
+        <v>4841808.769604007</v>
       </c>
       <c r="K84">
-        <v>2586.207335233704</v>
+        <v>3987036.794832598</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,22 +3385,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>54.36927519000447</v>
+        <v>1116409.568369012</v>
       </c>
       <c r="G85">
-        <v>398.2112623157714</v>
+        <v>4841506.405655583</v>
       </c>
       <c r="H85">
-        <v>1543.5685045979</v>
+        <v>3986152.636639013</v>
       </c>
       <c r="I85">
-        <v>-275.8371201716315</v>
+        <v>1116153.690333153</v>
       </c>
       <c r="J85">
-        <v>520.3939439177869</v>
+        <v>4841760.118052036</v>
       </c>
       <c r="K85">
-        <v>2454.438076656341</v>
+        <v>3986901.279434667</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,22 +3420,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>53.22553433592081</v>
+        <v>1116408.489178579</v>
       </c>
       <c r="G86">
-        <v>421.7127363405706</v>
+        <v>4841522.918481776</v>
       </c>
       <c r="H86">
-        <v>1554.595414902264</v>
+        <v>3986165.371700744</v>
       </c>
       <c r="I86">
-        <v>-194.2153928021901</v>
+        <v>1116215.127863339</v>
       </c>
       <c r="J86">
-        <v>473.5480161651429</v>
+        <v>4841711.466500064</v>
       </c>
       <c r="K86">
-        <v>2307.938896621561</v>
+        <v>3986750.615350394</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,22 +3455,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>52.15102793888001</v>
+        <v>1116407.47531515</v>
       </c>
       <c r="G87">
-        <v>445.21421036537</v>
+        <v>4841539.431307971</v>
       </c>
       <c r="H87">
-        <v>1565.173230266605</v>
+        <v>3986177.588099348</v>
       </c>
       <c r="I87">
-        <v>-110.5838054868883</v>
+        <v>1116278.078236184</v>
       </c>
       <c r="J87">
-        <v>426.7020884124987</v>
+        <v>4841662.814948092</v>
       </c>
       <c r="K87">
-        <v>2146.70979512936</v>
+        <v>3986584.802579778</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,22 +3490,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>51.13904486457416</v>
+        <v>1116406.520446354</v>
       </c>
       <c r="G88">
-        <v>468.7156843901693</v>
+        <v>4841555.944134164</v>
       </c>
       <c r="H88">
-        <v>1575.337104386197</v>
+        <v>3986189.326434092</v>
       </c>
       <c r="I88">
-        <v>-24.8928672735972</v>
+        <v>1116342.578704048</v>
       </c>
       <c r="J88">
-        <v>379.8561606598545</v>
+        <v>4841614.16339612</v>
       </c>
       <c r="K88">
-        <v>1970.750772179741</v>
+        <v>3986403.841122819</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,22 +3525,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>50.18375037705387</v>
+        <v>1116405.619066755</v>
       </c>
       <c r="G89">
-        <v>492.2171584149687</v>
+        <v>4841572.456960358</v>
       </c>
       <c r="H89">
-        <v>1585.118218373355</v>
+        <v>3986200.622716277</v>
       </c>
       <c r="I89">
-        <v>62.90813145897885</v>
+        <v>1116408.667436593</v>
       </c>
       <c r="J89">
-        <v>333.0102329072105</v>
+        <v>4841565.511844148</v>
       </c>
       <c r="K89">
-        <v>1780.061827772703</v>
+        <v>3986207.730979518</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,22 +3560,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>49.28004433795036</v>
+        <v>1116404.766364057</v>
       </c>
       <c r="G90">
-        <v>515.7186324397679</v>
+        <v>4841588.969786553</v>
       </c>
       <c r="H90">
-        <v>1594.544357660181</v>
+        <v>3986211.509035508</v>
       </c>
       <c r="I90">
-        <v>152.8711490099068</v>
+        <v>1116476.383543376</v>
       </c>
       <c r="J90">
-        <v>286.1643051545663</v>
+        <v>4841516.860292177</v>
       </c>
       <c r="K90">
-        <v>1574.642961908246</v>
+        <v>3985996.472149874</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,22 +3595,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>48.4234464646301</v>
+        <v>1116403.958110836</v>
       </c>
       <c r="G91">
-        <v>539.2201064645673</v>
+        <v>4841605.482612746</v>
       </c>
       <c r="H91">
-        <v>1603.640387836749</v>
+        <v>3986222.014109242</v>
       </c>
       <c r="I91">
-        <v>245.0494231035685</v>
+        <v>1116545.767096992</v>
       </c>
       <c r="J91">
-        <v>239.3183774019223</v>
+        <v>4841468.208740206</v>
       </c>
       <c r="K91">
-        <v>1354.494174586371</v>
+        <v>3985770.064633888</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,22 +3630,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>47.610002751579</v>
+        <v>1116403.190576241</v>
       </c>
       <c r="G92">
-        <v>562.7215804893666</v>
+        <v>4841621.99543894</v>
       </c>
       <c r="H92">
-        <v>1612.428649953463</v>
+        <v>3986232.163739327</v>
       </c>
       <c r="I92">
-        <v>339.4975023943286</v>
+        <v>1116616.859156784</v>
       </c>
       <c r="J92">
-        <v>192.4724496492781</v>
+        <v>4841419.557188232</v>
       </c>
       <c r="K92">
-        <v>1119.615465807075</v>
+        <v>3985528.508431558</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,22 +3665,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>46.83620859299174</v>
+        <v>1116402.46045346</v>
       </c>
       <c r="G93">
-        <v>586.2230545141659</v>
+        <v>4841638.508265134</v>
       </c>
       <c r="H93">
-        <v>1620.929291110304</v>
+        <v>3986241.9811938</v>
       </c>
       <c r="I93">
-        <v>436.2712787469848</v>
+        <v>1116689.701793144</v>
       </c>
       <c r="J93">
-        <v>145.6265218966339</v>
+        <v>4841370.905636261</v>
       </c>
       <c r="K93">
-        <v>870.0068355703614</v>
+        <v>3985271.803542887</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,22 +3700,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>46.09894519562486</v>
+        <v>1116401.764799717</v>
       </c>
       <c r="G94">
-        <v>609.7245285389653</v>
+        <v>4841655.021091327</v>
       </c>
       <c r="H94">
-        <v>1629.160542643636</v>
+        <v>3986251.487528168</v>
       </c>
       <c r="I94">
-        <v>535.4280203120818</v>
+        <v>1116764.338112411</v>
       </c>
       <c r="J94">
-        <v>98.78059414398994</v>
+        <v>4841322.254084289</v>
       </c>
       <c r="K94">
-        <v>605.6682838762293</v>
+        <v>3984999.949967872</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,22 +3735,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>45.39542665007554</v>
+        <v>1116401.100986336</v>
       </c>
       <c r="G95">
-        <v>633.2260025637645</v>
+        <v>4841671.533917521</v>
       </c>
       <c r="H95">
-        <v>1637.138955572735</v>
+        <v>3986260.701857328</v>
       </c>
       <c r="I95">
-        <v>637.0264054156921</v>
+        <v>1116840.812282376</v>
       </c>
       <c r="J95">
-        <v>51.93466639134574</v>
+        <v>4841273.602532318</v>
       </c>
       <c r="K95">
-        <v>326.5998107246776</v>
+        <v>3984712.947706515</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,22 +3770,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>44.72315561206977</v>
+        <v>1116400.466656915</v>
       </c>
       <c r="G96">
-        <v>656.7274765885639</v>
+        <v>4841688.046743716</v>
       </c>
       <c r="H96">
-        <v>1644.879600951587</v>
+        <v>3986269.641586956</v>
       </c>
       <c r="I96">
-        <v>741.1265572836774</v>
+        <v>1116919.169558421</v>
       </c>
       <c r="J96">
-        <v>5.088738638701528</v>
+        <v>4841224.950980346</v>
       </c>
       <c r="K96">
-        <v>32.80141611570711</v>
+        <v>3984410.796758816</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,22 +3805,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>44.07988598643998</v>
+        <v>1116399.859692127</v>
       </c>
       <c r="G97">
-        <v>680.2289506133632</v>
+        <v>4841704.559569909</v>
       </c>
       <c r="H97">
-        <v>1652.396241221948</v>
+        <v>3986278.322611396</v>
       </c>
       <c r="I97">
-        <v>847.7900796210274</v>
+        <v>1116999.456310301</v>
       </c>
       <c r="J97">
-        <v>-41.75718911394246</v>
+        <v>4841176.299428374</v>
       </c>
       <c r="K97">
-        <v>-275.7268999506814</v>
+        <v>3984093.497124773</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,22 +3840,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>43.46359134294574</v>
+        <v>1116399.278179906</v>
       </c>
       <c r="G98">
-        <v>703.7304246381625</v>
+        <v>4841721.072396103</v>
       </c>
       <c r="H98">
-        <v>1659.701477463002</v>
+        <v>3986286.759483731</v>
       </c>
       <c r="I98">
-        <v>957.080093067294</v>
+        <v>1117081.720049584</v>
       </c>
       <c r="J98">
-        <v>-88.60311686658666</v>
+        <v>4841127.647876402</v>
       </c>
       <c r="K98">
-        <v>-598.9851374744896</v>
+        <v>3983761.048804388</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,22 +3875,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>42.87243805191972</v>
+        <v>1116398.720390112</v>
       </c>
       <c r="G99">
-        <v>727.2318986629618</v>
+        <v>4841737.585222296</v>
       </c>
       <c r="H99">
-        <v>1666.806876495129</v>
+        <v>3986294.965562569</v>
       </c>
       <c r="I99">
-        <v>1069.061272549707</v>
+        <v>1117166.009457765</v>
       </c>
       <c r="J99">
-        <v>-135.4490446192309</v>
+        <v>4841078.99632443</v>
       </c>
       <c r="K99">
-        <v>-936.9732964557177</v>
+        <v>3983413.45179766</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,22 +3910,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>42.30476232840233</v>
+        <v>1116398.184752858</v>
       </c>
       <c r="G100">
-        <v>750.7333726877612</v>
+        <v>4841754.09804849</v>
       </c>
       <c r="H100">
-        <v>1673.723081057395</v>
+        <v>3986302.95313929</v>
       </c>
       <c r="I100">
-        <v>1183.799885556078</v>
+        <v>1117252.374415078</v>
       </c>
       <c r="J100">
-        <v>-182.2949723718751</v>
+        <v>4841030.344772458</v>
       </c>
       <c r="K100">
-        <v>-1289.691376894364</v>
+        <v>3983050.706104591</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,22 +3945,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>41.75905053017474</v>
+        <v>1116397.66983993</v>
       </c>
       <c r="G101">
-        <v>774.2348467125604</v>
+        <v>4841770.610874685</v>
       </c>
       <c r="H101">
-        <v>1680.459905693599</v>
+        <v>3986310.733548783</v>
       </c>
       <c r="I101">
-        <v>1301.363831350142</v>
+        <v>1117340.866030011</v>
       </c>
       <c r="J101">
-        <v>-229.1409001245189</v>
+        <v>4840981.693220487</v>
       </c>
       <c r="K101">
-        <v>-1657.139378790426</v>
+        <v>3982672.811725177</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,22 +3980,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>41.23392217839779</v>
+        <v>1116397.17434876</v>
       </c>
       <c r="G102">
-        <v>797.7363207373598</v>
+        <v>4841787.123700879</v>
       </c>
       <c r="H102">
-        <v>1687.026420515276</v>
+        <v>3986318.317266189</v>
       </c>
       <c r="I102">
-        <v>1421.822681152539</v>
+        <v>1117431.536669551</v>
       </c>
       <c r="J102">
-        <v>-275.9868278771631</v>
+        <v>4840933.041668515</v>
       </c>
       <c r="K102">
-        <v>-2039.31730214391</v>
+        <v>3982279.768659422</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,22 +4015,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>40.72811526718781</v>
+        <v>1116396.697088568</v>
       </c>
       <c r="G103">
-        <v>821.2377947621591</v>
+        <v>4841803.636527073</v>
       </c>
       <c r="H103">
-        <v>1693.431024635689</v>
+        <v>3986325.713991708</v>
       </c>
       <c r="I103">
-        <v>1545.247719311209</v>
+        <v>1117524.439990173</v>
       </c>
       <c r="J103">
-        <v>-322.8327556298073</v>
+        <v>4840884.390116543</v>
       </c>
       <c r="K103">
-        <v>-2436.225146954813</v>
+        <v>3981871.576907324</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,22 +4050,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>40.24047350624497</v>
+        <v>1116396.236968322</v>
       </c>
       <c r="G104">
-        <v>844.7392687869584</v>
+        <v>4841820.149353267</v>
       </c>
       <c r="H104">
-        <v>1699.681510766508</v>
+        <v>3986332.9327252</v>
       </c>
       <c r="I104">
-        <v>1671.711985485584</v>
+        <v>1117619.630969597</v>
       </c>
       <c r="J104">
-        <v>-369.6786833824515</v>
+        <v>4840835.738564571</v>
       </c>
       <c r="K104">
-        <v>-2847.862913223135</v>
+        <v>3981448.236468883</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,22 +4085,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>39.76993520299605</v>
+        <v>1116395.792986249</v>
       </c>
       <c r="G105">
-        <v>868.2407428117579</v>
+        <v>4841836.66217946</v>
       </c>
       <c r="H105">
-        <v>1705.785122223469</v>
+        <v>3986339.981832026</v>
       </c>
       <c r="I105">
-        <v>1801.290317869513</v>
+        <v>1117717.165939315</v>
       </c>
       <c r="J105">
-        <v>-416.5246111350957</v>
+        <v>4840787.087012599</v>
       </c>
       <c r="K105">
-        <v>-3274.230600948876</v>
+        <v>3981009.747344099</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,22 +4120,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>39.31552354096043</v>
+        <v>1116395.364220663</v>
       </c>
       <c r="G106">
-        <v>891.7422168365571</v>
+        <v>4841853.175005654</v>
       </c>
       <c r="H106">
-        <v>1711.748603386927</v>
+        <v>3986346.869101319</v>
       </c>
       <c r="I106">
-        <v>1934.059397478512</v>
+        <v>1117817.102617931</v>
       </c>
       <c r="J106">
-        <v>-463.3705388877394</v>
+        <v>4840738.435460628</v>
       </c>
       <c r="K106">
-        <v>-3715.328210132032</v>
+        <v>3980556.109532974</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,22 +4155,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>38.8763380517719</v>
+        <v>1116394.949821914</v>
       </c>
       <c r="G107">
-        <v>915.2436908613563</v>
+        <v>4841869.687831849</v>
       </c>
       <c r="H107">
-        <v>1717.578244498891</v>
+        <v>3986353.601797731</v>
       </c>
       <c r="I107">
-        <v>2070.097793527573</v>
+        <v>1117919.500145319</v>
       </c>
       <c r="J107">
-        <v>-510.2164666403837</v>
+        <v>4840689.783908656</v>
       </c>
       <c r="K107">
-        <v>-4171.155740772611</v>
+        <v>3980087.323035505</v>
       </c>
     </row>
   </sheetData>
